--- a/Praneeth.xlsx
+++ b/Praneeth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venugangavarapu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prane\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8FC392-7CDE-834A-AEB6-278A3E4B77DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF4A8AA-0B58-4AA8-939C-4B273EC59211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17280" activeTab="1" xr2:uid="{06F54D2C-AAB5-BF40-BD44-6A2B436FCF5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06F54D2C-AAB5-BF40-BD44-6A2B436FCF5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="225">
   <si>
     <t>BASIC PYTHON PROGRAMS</t>
   </si>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>Use CTE (Common Table Expression)</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -923,6 +926,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,9 +947,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -981,7 +987,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1087,7 +1093,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1229,7 +1235,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1239,18 +1245,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE94BCF4-E922-D14D-9A9F-84F8D25CFC5C}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1261,756 +1267,800 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="16">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="16">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="16">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="16">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="16">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="16">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="16">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="16">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="16">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="16">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="16">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="9"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="9"/>
     </row>
-    <row r="43" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="9"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="9"/>
     </row>
-    <row r="54" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="9"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="9"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="9"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="9"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="9"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="9"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="9"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="9"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="9"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="9"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="9"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="9"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="9"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="9"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="9"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="9"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="9"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="9"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="9"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="9"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="9"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="9"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="9"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="9"/>
     </row>
-    <row r="98" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="9"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="9"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="9"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="9"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="9"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="9"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="9"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="9"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="9"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="9"/>
     </row>
-    <row r="109" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>110</v>
       </c>
@@ -2027,19 +2077,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C818138-18F2-E143-B50E-824D76330ED1}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.19921875" customWidth="1"/>
+    <col min="2" max="2" width="37.796875" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>111</v>
       </c>
@@ -2053,7 +2103,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>114</v>
       </c>
@@ -2063,7 +2113,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>114</v>
       </c>
@@ -2073,7 +2123,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>114</v>
       </c>
@@ -2083,7 +2133,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>114</v>
       </c>
@@ -2093,7 +2143,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>114</v>
       </c>
@@ -2103,7 +2153,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>114</v>
       </c>
@@ -2113,7 +2163,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>114</v>
       </c>
@@ -2123,7 +2173,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>114</v>
       </c>
@@ -2133,7 +2183,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>114</v>
       </c>
@@ -2143,7 +2193,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -2153,7 +2203,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>125</v>
       </c>
@@ -2163,7 +2213,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>125</v>
       </c>
@@ -2173,7 +2223,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>125</v>
       </c>
@@ -2183,7 +2233,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>125</v>
       </c>
@@ -2193,7 +2243,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>125</v>
       </c>
@@ -2203,7 +2253,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>125</v>
       </c>
@@ -2213,7 +2263,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>125</v>
       </c>
@@ -2223,7 +2273,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>125</v>
       </c>
@@ -2233,7 +2283,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>125</v>
       </c>
@@ -2243,7 +2293,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>125</v>
       </c>
@@ -2253,7 +2303,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>136</v>
       </c>
@@ -2263,7 +2313,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>136</v>
       </c>
@@ -2273,7 +2323,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>136</v>
       </c>
@@ -2283,7 +2333,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>136</v>
       </c>
@@ -2293,7 +2343,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>136</v>
       </c>
@@ -2303,7 +2353,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>136</v>
       </c>
@@ -2313,7 +2363,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>136</v>
       </c>
@@ -2323,7 +2373,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>136</v>
       </c>
@@ -2333,7 +2383,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>136</v>
       </c>
@@ -2343,7 +2393,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>136</v>
       </c>
@@ -2353,7 +2403,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>147</v>
       </c>
@@ -2363,7 +2413,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>147</v>
       </c>
@@ -2373,7 +2423,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>147</v>
       </c>
@@ -2383,7 +2433,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>147</v>
       </c>
@@ -2393,7 +2443,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>147</v>
       </c>
@@ -2403,7 +2453,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>147</v>
       </c>
@@ -2413,7 +2463,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>147</v>
       </c>
@@ -2423,7 +2473,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>147</v>
       </c>
@@ -2433,7 +2483,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>147</v>
       </c>
@@ -2443,7 +2493,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>147</v>
       </c>
@@ -2453,7 +2503,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>158</v>
       </c>
@@ -2463,7 +2513,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>158</v>
       </c>
@@ -2473,7 +2523,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>158</v>
       </c>
@@ -2483,7 +2533,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>158</v>
       </c>
@@ -2493,7 +2543,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>158</v>
       </c>
@@ -2503,7 +2553,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>158</v>
       </c>
@@ -2513,7 +2563,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>158</v>
       </c>
@@ -2523,7 +2573,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>158</v>
       </c>
@@ -2533,7 +2583,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>158</v>
       </c>
@@ -2543,7 +2593,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>158</v>
       </c>
@@ -2553,7 +2603,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>169</v>
       </c>
@@ -2563,7 +2613,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>169</v>
       </c>
@@ -2573,7 +2623,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>169</v>
       </c>
@@ -2583,7 +2633,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>169</v>
       </c>
@@ -2593,7 +2643,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>169</v>
       </c>
@@ -2603,7 +2653,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>169</v>
       </c>
@@ -2613,7 +2663,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>169</v>
       </c>
@@ -2623,7 +2673,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>169</v>
       </c>
@@ -2633,7 +2683,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>169</v>
       </c>
@@ -2643,7 +2693,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>169</v>
       </c>
@@ -2653,7 +2703,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>180</v>
       </c>
@@ -2663,7 +2713,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>180</v>
       </c>
@@ -2673,7 +2723,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>180</v>
       </c>
@@ -2683,7 +2733,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>180</v>
       </c>
@@ -2693,7 +2743,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>180</v>
       </c>
@@ -2703,7 +2753,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>180</v>
       </c>
@@ -2713,7 +2763,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>180</v>
       </c>
@@ -2723,7 +2773,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>180</v>
       </c>
@@ -2733,7 +2783,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>180</v>
       </c>
@@ -2743,7 +2793,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>180</v>
       </c>
@@ -2753,7 +2803,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>191</v>
       </c>
@@ -2763,7 +2813,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>191</v>
       </c>
@@ -2773,7 +2823,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>191</v>
       </c>
@@ -2783,7 +2833,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>191</v>
       </c>
@@ -2793,7 +2843,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>191</v>
       </c>
@@ -2803,7 +2853,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>191</v>
       </c>
@@ -2813,7 +2863,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>191</v>
       </c>
@@ -2823,7 +2873,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>191</v>
       </c>
@@ -2833,7 +2883,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>191</v>
       </c>
@@ -2843,7 +2893,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>191</v>
       </c>
@@ -2853,7 +2903,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>202</v>
       </c>
@@ -2863,7 +2913,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>202</v>
       </c>
@@ -2873,7 +2923,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>202</v>
       </c>
@@ -2883,7 +2933,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>202</v>
       </c>
@@ -2893,7 +2943,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>202</v>
       </c>
@@ -2903,7 +2953,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>202</v>
       </c>
@@ -2913,7 +2963,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>202</v>
       </c>
@@ -2923,7 +2973,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>202</v>
       </c>
@@ -2933,7 +2983,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>202</v>
       </c>
@@ -2943,7 +2993,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>202</v>
       </c>
@@ -2953,7 +3003,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>213</v>
       </c>
@@ -2963,7 +3013,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>213</v>
       </c>
@@ -2973,7 +3023,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>213</v>
       </c>
@@ -2983,7 +3033,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>213</v>
       </c>
@@ -2993,7 +3043,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>213</v>
       </c>
@@ -3003,7 +3053,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>213</v>
       </c>
@@ -3013,7 +3063,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>213</v>
       </c>
@@ -3023,7 +3073,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>213</v>
       </c>
@@ -3033,7 +3083,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>213</v>
       </c>
@@ -3043,7 +3093,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>213</v>
       </c>

--- a/Praneeth.xlsx
+++ b/Praneeth.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prane\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF4A8AA-0B58-4AA8-939C-4B273EC59211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58970402-FCAE-45F8-9669-AB22DE8F3CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06F54D2C-AAB5-BF40-BD44-6A2B436FCF5F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06F54D2C-AAB5-BF40-BD44-6A2B436FCF5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="225">
   <si>
     <t>BASIC PYTHON PROGRAMS</t>
   </si>
@@ -1245,13 +1246,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE94BCF4-E922-D14D-9A9F-84F8D25CFC5C}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="98" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.5" customWidth="1"/>
+    <col min="1" max="1" width="51.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
@@ -1392,64 +1393,100 @@
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="16">
+        <v>45870</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="16">
+        <v>45870</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="16">
+        <v>45870</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="16">
+        <v>45870</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="16">
+        <v>45870</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="16">
+        <v>45870</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="16">
+        <v>45870</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="16">
+        <v>45870</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="16">
+        <v>45870</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -1462,71 +1499,111 @@
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -1539,71 +1616,111 @@
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="9"/>
+      <c r="B43" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="16">
+        <v>45871</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -1616,71 +1733,111 @@
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="9"/>
+      <c r="B45" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" s="16">
+        <v>45872</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="9"/>
+      <c r="B46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="16">
+        <v>45872</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="9"/>
+      <c r="B47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="16">
+        <v>45872</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="9"/>
+      <c r="B48" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="16">
+        <v>45872</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="9"/>
+      <c r="B49" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" s="16">
+        <v>45872</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="9"/>
+      <c r="B50" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="16">
+        <v>45872</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="9"/>
+      <c r="B51" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" s="16">
+        <v>45872</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="9"/>
+      <c r="B52" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" s="16">
+        <v>45872</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="9"/>
+      <c r="B53" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" s="16">
+        <v>45872</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="9"/>
+      <c r="B54" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="16">
+        <v>45872</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
@@ -1693,71 +1850,111 @@
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="9"/>
+      <c r="B56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="16">
+        <v>45873</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="9"/>
+      <c r="B57" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="16">
+        <v>45873</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="9"/>
+      <c r="B58" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" s="16">
+        <v>45873</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="9"/>
+      <c r="B59" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="16">
+        <v>45873</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="9"/>
+      <c r="B60" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="16">
+        <v>45873</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="9"/>
+      <c r="B61" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="16">
+        <v>45873</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="9"/>
+      <c r="B62" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="16">
+        <v>45873</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="9"/>
+      <c r="B63" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="16">
+        <v>45873</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="9"/>
+      <c r="B64" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="16">
+        <v>45873</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="9"/>
+      <c r="B65" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="16">
+        <v>45873</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
@@ -1770,57 +1967,89 @@
       <c r="A67" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="9"/>
+      <c r="B67" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" s="16">
+        <v>45874</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="9"/>
+      <c r="B68" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="16">
+        <v>45874</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="9"/>
+      <c r="B69" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="16">
+        <v>45874</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="9"/>
+      <c r="B70" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" s="16">
+        <v>45874</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="9"/>
+      <c r="B71" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" s="16">
+        <v>45874</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="9"/>
+      <c r="B72" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" s="16">
+        <v>45874</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="9"/>
+      <c r="B73" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" s="16">
+        <v>45874</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="9"/>
+      <c r="B74" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" s="16">
+        <v>45874</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
@@ -1847,36 +2076,56 @@
       <c r="A78" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="9"/>
+      <c r="B78" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="16">
+        <v>45875</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="9"/>
+      <c r="B79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="16">
+        <v>45875</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="9"/>
+      <c r="B80" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" s="16">
+        <v>45875</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="9"/>
+      <c r="B81" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C81" s="16">
+        <v>45875</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="9"/>
+      <c r="B82" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="16">
+        <v>45875</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
@@ -2077,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C818138-18F2-E143-B50E-824D76330ED1}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2581,7 +2830,9 @@
         <v>166</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="9"/>
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
